--- a/data_output/prism_passive/all_passive_out_length_AT_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>68.753245269581086</v>
+        <v>68.753245330191319</v>
       </c>
       <c r="C2">
-        <v>53.297626792024452</v>
+        <v>53.297626790733283</v>
       </c>
       <c r="D2">
-        <v>87.56770277784895</v>
+        <v>87.567702823727373</v>
       </c>
       <c r="E2">
-        <v>50.737448037869456</v>
+        <v>50.737448066250167</v>
       </c>
       <c r="F2">
-        <v>97.550774048893274</v>
+        <v>97.550774049491395</v>
       </c>
       <c r="G2">
-        <v>42.349841285947839</v>
+        <v>42.349841296343499</v>
       </c>
       <c r="H2">
-        <v>85.360381181959568</v>
+        <v>85.360381223808943</v>
       </c>
       <c r="I2">
-        <v>55.490688135852601</v>
+        <v>55.490688153054485</v>
       </c>
       <c r="J2">
-        <v>81.883769613084482</v>
+        <v>81.883769651463908</v>
       </c>
       <c r="K2">
-        <v>73.756708613867801</v>
+        <v>73.756708652487262</v>
       </c>
       <c r="L2">
-        <v>111.02637118562996</v>
+        <v>111.02637122842543</v>
       </c>
       <c r="N2">
-        <v>65.187973832888105</v>
+        <v>65.187973903399524</v>
       </c>
       <c r="O2">
-        <v>35.761089317009073</v>
+        <v>35.761089351678933</v>
       </c>
       <c r="P2">
-        <v>39.671679705920205</v>
+        <v>39.671679707981866</v>
       </c>
       <c r="Q2">
-        <v>35.226332306058268</v>
+        <v>35.226332320039546</v>
       </c>
       <c r="S2">
-        <v>64.019049266306482</v>
+        <v>64.019049282211398</v>
       </c>
       <c r="V2">
-        <v>62.476592782626966</v>
+        <v>62.476592794295634</v>
       </c>
       <c r="W2">
-        <v>31.876597488319252</v>
+        <v>31.876597493963732</v>
       </c>
       <c r="X2">
-        <v>29.555374614757184</v>
+        <v>29.555374638438387</v>
       </c>
       <c r="AA2">
-        <v>49.219843149091169</v>
+        <v>49.21984320082472</v>
       </c>
       <c r="AB2">
-        <v>50.015331302287535</v>
+        <v>50.015331327047896</v>
       </c>
       <c r="AC2">
-        <v>61.088715178131743</v>
+        <v>61.088715182428139</v>
       </c>
       <c r="AD2">
-        <v>50.469270346478538</v>
+        <v>50.46927037729985</v>
       </c>
       <c r="AE2">
-        <v>64.195816028792706</v>
+        <v>64.195816033671647</v>
       </c>
       <c r="AF2">
-        <v>43.87657234963941</v>
+        <v>43.876572351569926</v>
       </c>
       <c r="AG2">
-        <v>90.08055712185562</v>
+        <v>90.080557171966177</v>
       </c>
       <c r="AH2">
-        <v>59.431861067141753</v>
+        <v>59.431861074825861</v>
       </c>
       <c r="AI2">
-        <v>81.811962651733026</v>
+        <v>81.811962680900649</v>
       </c>
       <c r="AJ2">
-        <v>80.784654256866432</v>
+        <v>80.784654269220525</v>
       </c>
       <c r="AK2">
-        <v>114.85844845361117</v>
+        <v>114.85844848159769</v>
       </c>
       <c r="AL2">
-        <v>53.477615668354318</v>
+        <v>53.47761569813931</v>
       </c>
       <c r="AM2">
-        <v>64.474610581740606</v>
+        <v>64.474610650314517</v>
       </c>
       <c r="AN2">
-        <v>39.866832184976204</v>
+        <v>39.866832231383704</v>
       </c>
       <c r="AO2">
-        <v>31.317552286408961</v>
+        <v>31.317552312633946</v>
       </c>
       <c r="AQ2">
-        <v>44.539807135342642</v>
+        <v>44.53980716691045</v>
       </c>
       <c r="AR2">
-        <v>62.985686864647732</v>
+        <v>62.98568686696828</v>
       </c>
       <c r="AS2">
-        <v>67.052264483656742</v>
+        <v>67.052264489765861</v>
       </c>
       <c r="AU2">
-        <v>59.237432484448895</v>
+        <v>59.237432486669931</v>
       </c>
       <c r="AV2">
-        <v>42.954887548303581</v>
+        <v>42.954887587100302</v>
       </c>
       <c r="AW2">
-        <v>32.253642351334214</v>
+        <v>32.253642370690997</v>
       </c>
       <c r="AX2">
-        <v>37.553934645980625</v>
+        <v>37.553934688264363</v>
       </c>
       <c r="AY2">
-        <v>54.726650404251906</v>
+        <v>54.726650422193785</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>48.27210622405331</v>
+        <v>48.27210626696008</v>
       </c>
       <c r="C3">
-        <v>62.890688871279295</v>
+        <v>62.890688896912771</v>
       </c>
       <c r="E3">
-        <v>58.792224411973102</v>
+        <v>58.792224430975651</v>
       </c>
       <c r="F3">
-        <v>58.697191246731499</v>
+        <v>58.697191271265012</v>
       </c>
       <c r="G3">
-        <v>43.876050847741496</v>
+        <v>43.876050869763617</v>
       </c>
       <c r="H3">
-        <v>89.455824579206862</v>
+        <v>89.455824617036583</v>
       </c>
       <c r="J3">
-        <v>85.160056357083505</v>
+        <v>85.16005639610178</v>
       </c>
       <c r="K3">
-        <v>70.38537446847424</v>
+        <v>70.385374501114782</v>
       </c>
       <c r="L3">
-        <v>71.805824512604644</v>
+        <v>71.805824559993198</v>
       </c>
       <c r="M3">
-        <v>46.249419747562271</v>
+        <v>46.249538731267549</v>
       </c>
       <c r="N3">
-        <v>62.557460270227452</v>
+        <v>62.557460325816436</v>
       </c>
       <c r="P3">
-        <v>34.431201974117812</v>
+        <v>34.431202007893816</v>
       </c>
       <c r="Q3">
-        <v>40.653920226641709</v>
+        <v>40.653920259580794</v>
       </c>
       <c r="R3">
-        <v>50.302108926143951</v>
+        <v>50.302108950983936</v>
       </c>
       <c r="W3">
-        <v>67.749167137458926</v>
+        <v>67.749167132914934</v>
       </c>
       <c r="AA3">
-        <v>41.046786563182216</v>
+        <v>41.04678660442103</v>
       </c>
       <c r="AB3">
-        <v>69.327369408888174</v>
+        <v>69.327369417446292</v>
       </c>
       <c r="AC3">
-        <v>55.222138242223359</v>
+        <v>55.22213827543893</v>
       </c>
       <c r="AD3">
-        <v>65.27494157161712</v>
+        <v>65.274941622690193</v>
       </c>
       <c r="AE3">
-        <v>42.836599845753476</v>
+        <v>42.836599862571603</v>
       </c>
       <c r="AF3">
-        <v>45.960099899762753</v>
+        <v>45.96009991665381</v>
       </c>
       <c r="AG3">
-        <v>86.08508951168875</v>
+        <v>86.085089545212981</v>
       </c>
       <c r="AH3">
-        <v>41.614952154621186</v>
+        <v>41.614952159547833</v>
       </c>
       <c r="AI3">
-        <v>84.144541190942007</v>
+        <v>84.144541238387802</v>
       </c>
       <c r="AJ3">
-        <v>70.110727874666139</v>
+        <v>70.110727920356368</v>
       </c>
       <c r="AK3">
-        <v>99.602077662308631</v>
+        <v>99.602077712245659</v>
       </c>
       <c r="AL3">
-        <v>36.14369124397895</v>
+        <v>36.143691267802446</v>
       </c>
       <c r="AM3">
-        <v>51.951582669256105</v>
+        <v>51.95158270878715</v>
       </c>
       <c r="AN3">
-        <v>46.752859684703395</v>
+        <v>46.752859715113551</v>
       </c>
       <c r="AO3">
-        <v>33.676811314071202</v>
+        <v>33.676811342091618</v>
       </c>
       <c r="AP3">
-        <v>42.486391303212471</v>
+        <v>42.48639133302504</v>
       </c>
       <c r="AQ3">
-        <v>44.670813039510321</v>
+        <v>44.670813055372129</v>
       </c>
       <c r="AS3">
-        <v>83.454230019905296</v>
+        <v>83.454230035346683</v>
       </c>
       <c r="AT3">
-        <v>71.250674255292708</v>
+        <v>71.250674293126238</v>
       </c>
       <c r="AU3">
-        <v>54.158999616821859</v>
+        <v>54.158999647877806</v>
       </c>
       <c r="AV3">
-        <v>68.834765040100535</v>
+        <v>68.83476509643998</v>
       </c>
       <c r="AW3">
-        <v>28.955252658043488</v>
+        <v>28.955252682108078</v>
       </c>
       <c r="AX3">
-        <v>41.371632271256559</v>
+        <v>41.371632310829874</v>
       </c>
       <c r="AY3">
-        <v>40.22909070211648</v>
+        <v>40.229090741537185</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_AT_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,53 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>68.753245330191319</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>53.297626790733283</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>87.567702823727373</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>50.737448066250167</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>97.550774049491395</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>42.349841296343499</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>85.360381223808943</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>55.490688153054485</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>81.883769651463908</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>73.756708652487262</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>111.02637122842543</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>65.187973903399524</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>35.761089351678933</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>39.671679707981866</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>35.226332320039546</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
         <v>64.019049282211398</v>
@@ -570,52 +465,55 @@
         <v>29.555374638438387</v>
       </c>
       <c r="AA2">
-        <v>49.21984320082472</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>50.015331327047896</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>61.088715182428139</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>50.46927037729985</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>64.195816033671647</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>43.876572351569926</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>90.080557171966177</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>59.431861074825861</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>81.811962680900649</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>80.784654269220525</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>114.85844848159769</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>53.47761569813931</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>64.474610650314517</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>39.866832231383704</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>31.317552312633946</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>44.53980716691045</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>62.98568686696828</v>
@@ -640,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>48.27210626696008</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>62.890688896912771</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>58.792224430975651</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>58.697191271265012</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>43.876050869763617</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>89.455824617036583</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>85.16005639610178</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>70.385374501114782</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>71.805824559993198</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>46.249538731267549</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>62.557460325816436</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>34.431202007893816</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>40.653920259580794</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>50.302108950983936</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>67.749167132914934</v>
       </c>
       <c r="AA3">
-        <v>41.04678660442103</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>69.327369417446292</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>55.22213827543893</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>65.274941622690193</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>42.836599862571603</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>45.96009991665381</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>86.085089545212981</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>41.614952159547833</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>84.144541238387802</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>70.110727920356368</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>99.602077712245659</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>36.143691267802446</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>51.95158270878715</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>46.752859715113551</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>33.676811342091618</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>42.48639133302504</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>44.670813055372129</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>83.454230035346683</v>

--- a/data_output/prism_passive/all_passive_out_length_AT_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>68.753245269581086</v>
-      </c>
-      <c r="C2">
-        <v>53.297626792024452</v>
+        <v>35.761089351678933</v>
       </c>
       <c r="D2">
-        <v>87.56770277784895</v>
+        <v>39.866832231383704</v>
       </c>
       <c r="E2">
-        <v>50.737448037869456</v>
+        <v>44.53980716691045</v>
       </c>
       <c r="F2">
         <v>97.550774048893274</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>48.27210622405331</v>
-      </c>
       <c r="C3">
-        <v>62.890688871279295</v>
+        <v>50.302108950983936</v>
+      </c>
+      <c r="D3">
+        <v>46.752859715113551</v>
       </c>
       <c r="E3">
-        <v>58.792224411973102</v>
+        <v>44.76646235616586</v>
       </c>
       <c r="F3">
         <v>58.697191246731499</v>

--- a/data_output/prism_passive/all_passive_out_length_AT_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>68.753245269581086</v>
+        <v>65.187973903399524</v>
       </c>
       <c r="C2">
-        <v>53.297626792024452</v>
+        <v>35.761089351678933</v>
       </c>
       <c r="D2">
-        <v>87.56770277784895</v>
+        <v>64.474610650314517</v>
       </c>
       <c r="E2">
-        <v>50.737448037869456</v>
+        <v>39.866832231383704</v>
       </c>
       <c r="F2">
         <v>97.550774048893274</v>
@@ -649,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>48.27210622405331</v>
-      </c>
-      <c r="C3">
-        <v>62.890688871279295</v>
+        <v>62.557460325816436</v>
+      </c>
+      <c r="D3">
+        <v>51.95158270878715</v>
       </c>
       <c r="E3">
-        <v>58.792224411973102</v>
+        <v>46.752859715113551</v>
       </c>
       <c r="F3">
         <v>58.697191246731499</v>

--- a/data_output/prism_passive/all_passive_out_length_AT_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>68.753245330191319</v>
+      </c>
+      <c r="C2">
+        <v>53.297626790733283</v>
+      </c>
+      <c r="D2">
+        <v>87.567702823727373</v>
+      </c>
+      <c r="E2">
+        <v>50.737448066250167</v>
+      </c>
+      <c r="F2">
+        <v>97.550774049491395</v>
+      </c>
+      <c r="G2">
+        <v>42.349841296343499</v>
+      </c>
+      <c r="H2">
+        <v>85.360381223808943</v>
+      </c>
+      <c r="I2">
+        <v>55.490688153054485</v>
+      </c>
+      <c r="J2">
+        <v>81.883769651463908</v>
+      </c>
+      <c r="K2">
+        <v>73.756708652487262</v>
+      </c>
+      <c r="L2">
+        <v>111.02637122842543</v>
+      </c>
+      <c r="N2">
         <v>65.187973903399524</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>35.761089351678933</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>39.671679707981866</v>
+      </c>
+      <c r="Q2">
+        <v>35.226332320039546</v>
+      </c>
+      <c r="S2">
+        <v>64.019049282211398</v>
+      </c>
+      <c r="V2">
+        <v>62.476592794295634</v>
+      </c>
+      <c r="W2">
+        <v>31.876597493963732</v>
+      </c>
+      <c r="X2">
+        <v>29.555374638438387</v>
+      </c>
+      <c r="AA2">
+        <v>49.21984320082472</v>
+      </c>
+      <c r="AB2">
+        <v>50.015331327047896</v>
+      </c>
+      <c r="AC2">
+        <v>61.088715182428139</v>
+      </c>
+      <c r="AD2">
+        <v>50.46927037729985</v>
+      </c>
+      <c r="AE2">
+        <v>64.195816033671647</v>
+      </c>
+      <c r="AF2">
+        <v>43.876572351569926</v>
+      </c>
+      <c r="AG2">
+        <v>90.080557171966177</v>
+      </c>
+      <c r="AH2">
+        <v>59.431861074825861</v>
+      </c>
+      <c r="AI2">
+        <v>81.811962680900649</v>
+      </c>
+      <c r="AJ2">
+        <v>80.784654269220525</v>
+      </c>
+      <c r="AK2">
+        <v>114.85844848159769</v>
+      </c>
+      <c r="AL2">
+        <v>53.47761569813931</v>
+      </c>
+      <c r="AM2">
         <v>64.474610650314517</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>39.866832231383704</v>
       </c>
-      <c r="F2">
-        <v>97.550774048893274</v>
-      </c>
-      <c r="G2">
-        <v>42.349841285947839</v>
-      </c>
-      <c r="H2">
-        <v>85.360381181959568</v>
-      </c>
-      <c r="I2">
-        <v>55.490688135852601</v>
-      </c>
-      <c r="J2">
-        <v>81.883769613084482</v>
-      </c>
-      <c r="K2">
-        <v>73.756708613867801</v>
-      </c>
-      <c r="L2">
-        <v>111.02637118562996</v>
-      </c>
-      <c r="N2">
-        <v>65.187973832888105</v>
-      </c>
-      <c r="O2">
-        <v>35.761089317009073</v>
-      </c>
-      <c r="P2">
-        <v>39.671679705920205</v>
-      </c>
-      <c r="Q2">
-        <v>35.226332306058268</v>
-      </c>
-      <c r="S2">
-        <v>64.019049266306482</v>
-      </c>
-      <c r="V2">
-        <v>62.476592782626966</v>
-      </c>
-      <c r="W2">
-        <v>31.876597488319252</v>
-      </c>
-      <c r="X2">
-        <v>29.555374614757184</v>
-      </c>
-      <c r="AA2">
-        <v>49.219843149091169</v>
-      </c>
-      <c r="AB2">
-        <v>50.015331302287535</v>
-      </c>
-      <c r="AC2">
-        <v>61.088715178131743</v>
-      </c>
-      <c r="AD2">
-        <v>50.469270346478538</v>
-      </c>
-      <c r="AE2">
-        <v>64.195816028792706</v>
-      </c>
-      <c r="AF2">
-        <v>43.87657234963941</v>
-      </c>
-      <c r="AG2">
-        <v>90.08055712185562</v>
-      </c>
-      <c r="AH2">
-        <v>59.431861067141753</v>
-      </c>
-      <c r="AI2">
-        <v>81.811962651733026</v>
-      </c>
-      <c r="AJ2">
-        <v>80.784654256866432</v>
-      </c>
-      <c r="AK2">
-        <v>114.85844845361117</v>
-      </c>
-      <c r="AL2">
-        <v>53.477615668354318</v>
-      </c>
-      <c r="AM2">
-        <v>64.474610581740606</v>
-      </c>
-      <c r="AN2">
-        <v>39.866832184976204</v>
-      </c>
       <c r="AO2">
-        <v>31.317552286408961</v>
+        <v>31.317552312633946</v>
       </c>
       <c r="AQ2">
-        <v>44.539807135342642</v>
+        <v>44.53980716691045</v>
       </c>
       <c r="AR2">
-        <v>62.985686864647732</v>
+        <v>62.98568686696828</v>
       </c>
       <c r="AS2">
-        <v>67.052264483656742</v>
+        <v>67.052264489765861</v>
       </c>
       <c r="AU2">
-        <v>59.237432484448895</v>
+        <v>59.237432486669931</v>
       </c>
       <c r="AV2">
-        <v>42.954887548303581</v>
+        <v>42.954887587100302</v>
       </c>
       <c r="AW2">
-        <v>32.253642351334214</v>
+        <v>32.253642370690997</v>
       </c>
       <c r="AX2">
-        <v>37.553934645980625</v>
+        <v>37.553934688264363</v>
       </c>
       <c r="AY2">
-        <v>54.726650404251906</v>
+        <v>54.726650422193785</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -644,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>48.27210626696008</v>
+      </c>
+      <c r="C3">
+        <v>62.890688896912771</v>
+      </c>
+      <c r="E3">
+        <v>58.792224430975651</v>
+      </c>
+      <c r="F3">
+        <v>58.697191271265012</v>
+      </c>
+      <c r="G3">
+        <v>43.876050869763617</v>
+      </c>
+      <c r="H3">
+        <v>89.455824617036583</v>
+      </c>
+      <c r="J3">
+        <v>85.16005639610178</v>
+      </c>
+      <c r="K3">
+        <v>70.385374501114782</v>
+      </c>
+      <c r="L3">
+        <v>71.805824559993198</v>
+      </c>
+      <c r="M3">
+        <v>46.249538731267549</v>
+      </c>
+      <c r="N3">
         <v>62.557460325816436</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>34.431202007893816</v>
+      </c>
+      <c r="Q3">
+        <v>40.653920259580794</v>
+      </c>
+      <c r="R3">
+        <v>50.302108950983936</v>
+      </c>
+      <c r="W3">
+        <v>67.749167132914934</v>
+      </c>
+      <c r="AA3">
+        <v>41.04678660442103</v>
+      </c>
+      <c r="AB3">
+        <v>69.327369417446292</v>
+      </c>
+      <c r="AC3">
+        <v>55.22213827543893</v>
+      </c>
+      <c r="AD3">
+        <v>65.274941622690193</v>
+      </c>
+      <c r="AE3">
+        <v>42.836599862571603</v>
+      </c>
+      <c r="AF3">
+        <v>45.96009991665381</v>
+      </c>
+      <c r="AG3">
+        <v>86.085089545212981</v>
+      </c>
+      <c r="AH3">
+        <v>41.681754595578006</v>
+      </c>
+      <c r="AI3">
+        <v>84.144541238387802</v>
+      </c>
+      <c r="AJ3">
+        <v>70.110727920356368</v>
+      </c>
+      <c r="AK3">
+        <v>99.602077712245659</v>
+      </c>
+      <c r="AL3">
+        <v>36.143691267802446</v>
+      </c>
+      <c r="AM3">
         <v>51.95158270878715</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>46.752859715113551</v>
       </c>
-      <c r="F3">
-        <v>58.697191246731499</v>
-      </c>
-      <c r="G3">
-        <v>43.876050847741496</v>
-      </c>
-      <c r="H3">
-        <v>89.455824579206862</v>
-      </c>
-      <c r="J3">
-        <v>85.160056357083505</v>
-      </c>
-      <c r="K3">
-        <v>70.38537446847424</v>
-      </c>
-      <c r="L3">
-        <v>71.805824512604644</v>
-      </c>
-      <c r="M3">
-        <v>46.249419747562271</v>
-      </c>
-      <c r="N3">
-        <v>62.557460270227452</v>
-      </c>
-      <c r="P3">
-        <v>34.431201974117812</v>
-      </c>
-      <c r="Q3">
-        <v>40.653920226641709</v>
-      </c>
-      <c r="R3">
-        <v>50.302108926143951</v>
-      </c>
-      <c r="W3">
-        <v>67.749167137458926</v>
-      </c>
-      <c r="AA3">
-        <v>41.046786563182216</v>
-      </c>
-      <c r="AB3">
-        <v>69.327369408888174</v>
-      </c>
-      <c r="AC3">
-        <v>55.222138242223359</v>
-      </c>
-      <c r="AD3">
-        <v>65.27494157161712</v>
-      </c>
-      <c r="AE3">
-        <v>42.836599845753476</v>
-      </c>
-      <c r="AF3">
-        <v>45.960099899762753</v>
-      </c>
-      <c r="AG3">
-        <v>86.08508951168875</v>
-      </c>
-      <c r="AH3">
-        <v>41.681754584099501</v>
-      </c>
-      <c r="AI3">
-        <v>84.144541190942007</v>
-      </c>
-      <c r="AJ3">
-        <v>70.110727874666139</v>
-      </c>
-      <c r="AK3">
-        <v>99.602077662308631</v>
-      </c>
-      <c r="AL3">
-        <v>36.14369124397895</v>
-      </c>
-      <c r="AM3">
-        <v>51.951582669256105</v>
-      </c>
-      <c r="AN3">
-        <v>46.752859684703395</v>
-      </c>
       <c r="AO3">
-        <v>33.676811314071202</v>
+        <v>33.676811342091618</v>
       </c>
       <c r="AP3">
-        <v>42.486391303212471</v>
+        <v>42.48639133302504</v>
       </c>
       <c r="AQ3">
-        <v>44.766462345110213</v>
+        <v>44.76646235616586</v>
       </c>
       <c r="AS3">
-        <v>83.454230019905296</v>
+        <v>83.454230035346683</v>
       </c>
       <c r="AT3">
-        <v>71.250674255292708</v>
+        <v>71.250674293126238</v>
       </c>
       <c r="AU3">
-        <v>54.158999616821859</v>
+        <v>54.158999647877806</v>
       </c>
       <c r="AV3">
-        <v>68.834765040100535</v>
+        <v>68.83476509643998</v>
       </c>
       <c r="AW3">
-        <v>28.955252658043488</v>
+        <v>28.955252682108078</v>
       </c>
       <c r="AX3">
-        <v>41.371632271256559</v>
+        <v>41.371632310829874</v>
       </c>
       <c r="AY3">
-        <v>40.22909070211648</v>
+        <v>40.229090741537185</v>
       </c>
     </row>
   </sheetData>
